--- a/Grille_d_evaluation_hellink.xlsx
+++ b/Grille_d_evaluation_hellink.xlsx
@@ -1,14 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7B9E4-C126-4ACA-A071-11FDC3E46D9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$G$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$D$5:$G$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +40,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Grille d'évaluation du Serious game Hellink</t>
+  </si>
+  <si>
+    <t>Intention comprise 
+par les joueurs</t>
+  </si>
+  <si>
+    <t>Les mécaniques ont été comprises</t>
+  </si>
+  <si>
+    <t>Les joueurs 
+se sont amusés</t>
+  </si>
+  <si>
+    <t>Note (5 plus positif, 1 plus négatif 
+exmple : 5=intention parfaitement comprise, 1 intention non comprise)</t>
+  </si>
+  <si>
+    <t>Total 
+de participants</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +77,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,18 +155,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +443,2305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Intention Comprise</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Intention Comprise</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{D8D479D4-D5E3-4AB5-8424-DDD270067037}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Intention comprise 
+par les joueurs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFF33"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Les joueurs se sont amusés</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Les joueurs se sont amusés</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Les joueurs 
+se sont amusés</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Mécaniques comprise</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Mécaniques comprise</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Les mécaniques ont été comprises</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Graphique 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6274783-B45C-4334-A558-7B7BB6677A8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6000750" y="395287"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Graphique 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D267CB-44F6-4BC8-AFFB-C9640CB448EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5991225" y="3300412"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Graphique 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A27C9B-5486-4A51-8604-79A7218FBDE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6000750" y="6176962"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3006,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="K7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H5:H7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grille_d_evaluation_hellink.xlsx
+++ b/Grille_d_evaluation_hellink.xlsx
@@ -3,33 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7B9E4-C126-4ACA-A071-11FDC3E46D9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBA48BB-896D-4528-9EA1-D6D12EAAE7CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$5:$F$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$G$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$7:$G$7</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$D$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Grille d'évaluation du Serious game Hellink</t>
   </si>
@@ -63,6 +53,76 @@
   <si>
     <t>Total 
 de participants</t>
+  </si>
+  <si>
+    <t>Liste des testeurs</t>
+  </si>
+  <si>
+    <t>Prénom :</t>
+  </si>
+  <si>
+    <t>Nom :</t>
+  </si>
+  <si>
+    <t>Métier/étude:</t>
+  </si>
+  <si>
+    <t>Age :</t>
+  </si>
+  <si>
+    <t>Fréquence
+ de jeu :</t>
+  </si>
+  <si>
+    <t>Fréquence d'utilisation
+d'internet :</t>
+  </si>
+  <si>
+    <t>Genre :</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>//Souhaite 
+rester anonyme</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>vendeuse en
+ boulangerie</t>
+  </si>
+  <si>
+    <t>2ème année en fac 
+de math</t>
+  </si>
+  <si>
+    <t>Seconde</t>
+  </si>
+  <si>
+    <t>très rarement</t>
+  </si>
+  <si>
+    <t>Plusieurs heurs 
+par semaines</t>
+  </si>
+  <si>
+    <t>Plusieurs heures
+par mois</t>
+  </si>
+  <si>
+    <t>tout les jours</t>
   </si>
 </sst>
 </file>
@@ -147,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -186,19 +246,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -209,8 +256,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -225,7 +274,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -237,21 +286,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -291,19 +325,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -330,94 +351,356 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +733,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -491,7 +774,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D8D479D4-D5E3-4AB5-8424-DDD270067037}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Intention comprise 
 par les joueurs</cx:v>
             </cx:txData>
@@ -556,10 +839,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -597,7 +880,7 @@
         <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Les joueurs 
 se sont amusés</cx:v>
             </cx:txData>
@@ -673,10 +956,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -714,7 +997,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Les mécaniques ont été comprises</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2595,8 +2878,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2632,8 +2915,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5991225" y="3300412"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7886700" y="3509962"/>
+              <a:ext cx="4572000" cy="3567113"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2666,15 +2949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2710,7 +2993,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6000750" y="6176962"/>
+              <a:off x="7867650" y="7177087"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3007,17 +3290,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="3" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3027,109 +3311,257 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="12">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="32">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="27">
         <v>4</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="28">
         <v>3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="17"/>
       <c r="K7" s="2"/>
     </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18">
+        <v>16</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>19</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Grille_d_evaluation_hellink.xlsx
+++ b/Grille_d_evaluation_hellink.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBA48BB-896D-4528-9EA1-D6D12EAAE7CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C178B-DD9C-4D87-A1F3-B364186CBB30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,45 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$10</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$C$10:$G$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Feuil1!$B$8</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Feuil1!$C$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$11</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Feuil1!$B$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Feuil1!$C$10:$G$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Feuil1!$B$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Feuil1!$B$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Feuil1!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$8</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Grille d'évaluation du Serious game Hellink</t>
   </si>
@@ -62,9 +92,6 @@
   </si>
   <si>
     <t>Nom :</t>
-  </si>
-  <si>
-    <t>Métier/étude:</t>
   </si>
   <si>
     <t>Age :</t>
@@ -100,17 +127,6 @@
     <t>Homme</t>
   </si>
   <si>
-    <t>vendeuse en
- boulangerie</t>
-  </si>
-  <si>
-    <t>2ème année en fac 
-de math</t>
-  </si>
-  <si>
-    <t>Seconde</t>
-  </si>
-  <si>
     <t>très rarement</t>
   </si>
   <si>
@@ -123,6 +139,21 @@
   </si>
   <si>
     <t>tout les jours</t>
+  </si>
+  <si>
+    <t>Les commandes du jeu ont été comprise</t>
+  </si>
+  <si>
+    <t>Les joueurs on atteints les objectifs du jeu</t>
+  </si>
+  <si>
+    <t>Les joueurs ont lu tout le texte</t>
+  </si>
+  <si>
+    <t>commentaire des joueurs</t>
+  </si>
+  <si>
+    <t>Les joueurs en ont appris plus sur la manipulation d'informations</t>
   </si>
 </sst>
 </file>
@@ -207,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -216,8 +247,223 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -225,15 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -243,10 +487,55 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -256,12 +545,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -271,64 +556,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -339,95 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -437,10 +591,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -450,90 +602,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -545,162 +617,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +802,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -774,7 +843,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D8D479D4-D5E3-4AB5-8424-DDD270067037}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Intention comprise 
 par les joueurs</cx:v>
             </cx:txData>
@@ -839,10 +908,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -880,7 +949,7 @@
         <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Les joueurs 
 se sont amusés</cx:v>
             </cx:txData>
@@ -956,10 +1025,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -997,8 +1066,396 @@
         <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
           <cx:tx>
             <cx:txData>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>Les mécaniques ont été comprises</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Commande comprises</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Commande comprises</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{731BF389-3BE5-4199-856B-CE0B7F94DE3E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Les commandes du jeu ont été comprise</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Les joueurs ont appris sur la manipulation d'informations</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Les joueurs ont appris sur la manipulation d'informations</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{0487D172-755B-4791-9D4A-6C81B788BCEA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Les joueurs en ont appris plus sur la manipulation d'informations</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.26</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Atteints les objectifs du jeu</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Atteints les objectifs du jeu</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{6109AE0F-7723-4D2F-BBBA-41B421E302CE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Les joueurs on atteints les objectifs du jeu</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>On lu tout le texte</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>On lu tout le texte</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{D3366049-3379-468C-90B4-5333EC99BB7A}">
+          <cx:tx>
+            <cx:txData>
               <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>Les mécaniques ont été comprises</cx:v>
+              <cx:v>Les joueurs ont lu tout le texte</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataPt idx="0">
@@ -1168,6 +1625,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
   <cs:axisTitle>
@@ -2249,6 +2866,2166 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2793,15 +5570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2837,8 +5614,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6000750" y="395287"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7867651" y="395288"/>
+              <a:ext cx="3067050" cy="4567238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2870,16 +5647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2915,8 +5692,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7886700" y="3509962"/>
-              <a:ext cx="4572000" cy="3567113"/>
+              <a:off x="11525250" y="395287"/>
+              <a:ext cx="3048000" cy="4567238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2948,16 +5725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2993,8 +5770,320 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7867650" y="7177087"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7877175" y="6681787"/>
+              <a:ext cx="3048000" cy="4757738"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>695324</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F2E45A-860C-497C-8475-55AF7F185535}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11553825" y="6696074"/>
+              <a:ext cx="3048000" cy="4733925"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Graphique 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED2394E-BB7A-41E6-A49D-9A4354D6BB4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7877175" y="12392025"/>
+              <a:ext cx="3067050" cy="4743450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Graphique 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E40C76-4BDE-499B-B606-20DCAAEF8587}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11553825" y="12411074"/>
+              <a:ext cx="3028950" cy="4752975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Graphique 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD86E55-DC12-4A36-B732-3DC476AEB9F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7867650" y="18116549"/>
+              <a:ext cx="3048000" cy="4200525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3290,86 +6379,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:H19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="32">
+    <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="21">
         <v>5</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="43">
         <v>1</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="45">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -3381,189 +6470,269 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="44">
         <v>1</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="44">
         <v>1</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="46"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="44">
+        <v>1</v>
+      </c>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="44">
+        <v>1</v>
+      </c>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44">
+        <v>1</v>
+      </c>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="44">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="51"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="51"/>
+    <row r="15" spans="1:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="2:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="18">
-        <v>16</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E23" s="14">
+        <v>19</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>22</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>19</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Grille_d_evaluation_hellink.xlsx
+++ b/Grille_d_evaluation_hellink.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C178B-DD9C-4D87-A1F3-B364186CBB30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F83E-215A-4CEA-8035-B33E1ECE2BB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,57 +11,51 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$4:$G$4</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$4:$G$4</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$C$12:$G$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$8</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$8:$G$8</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$9</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$6:$G$6</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$C$10:$G$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$B$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$C$11:$G$11</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Feuil1!$B$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Feuil1!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Feuil1!$B$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Feuil1!$C$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Feuil1!$B$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Feuil1!$C$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Feuil1!$B$9</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Feuil1!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$10:$G$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$7</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$7:$G$7</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Grille d'évaluation du Serious game Hellink</t>
   </si>
@@ -138,13 +132,7 @@
 par mois</t>
   </si>
   <si>
-    <t>tout les jours</t>
-  </si>
-  <si>
     <t>Les commandes du jeu ont été comprise</t>
-  </si>
-  <si>
-    <t>Les joueurs on atteints les objectifs du jeu</t>
   </si>
   <si>
     <t>Les joueurs ont lu tout le texte</t>
@@ -154,6 +142,105 @@
   </si>
   <si>
     <t>Les joueurs en ont appris plus sur la manipulation d'informations</t>
+  </si>
+  <si>
+    <t>Gaillard</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Vail</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>plusieurs heures 
+par semaine</t>
+  </si>
+  <si>
+    <t>Davignon</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>ocasionn
+ellement</t>
+  </si>
+  <si>
+    <t>Clavet</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Boulé</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>tous les jours</t>
+  </si>
+  <si>
+    <t>non très peu</t>
+  </si>
+  <si>
+    <t>presque tous les jours</t>
+  </si>
+  <si>
+    <t>non sauf quand c'est 
+une information importante</t>
+  </si>
+  <si>
+    <t>oui quelques fois</t>
+  </si>
+  <si>
+    <t>oui mais seulement 
+les recherches importantes</t>
+  </si>
+  <si>
+    <t>non sauf pour 
+les devoirs</t>
+  </si>
+  <si>
+    <t>non rarement</t>
+  </si>
+  <si>
+    <t>oui toujours</t>
+  </si>
+  <si>
+    <t>uniquement pour 
+les infos importantes</t>
+  </si>
+  <si>
+    <t>oui 
+régulièrement</t>
+  </si>
+  <si>
+    <t>non 
+pas vraiment</t>
+  </si>
+  <si>
+    <t>Les joueurs ont atteints les objectifs du jeu</t>
+  </si>
+  <si>
+    <t>*jeu avec un conept sympa, mais trop ennuyeux    *utile pour les personnes ne sachant pas utiliser internet    
+*plus de personnes devrait jouer à ce jeu et apprendre à vérifier leurs sources    *jeu intéressant    *trop d'informations en même temps</t>
+  </si>
+  <si>
+    <t>Fréquence de vérification des sources :</t>
+  </si>
+  <si>
+    <t>Les joueurs ont visés le score</t>
   </si>
 </sst>
 </file>
@@ -617,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -696,9 +783,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,10 +801,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,10 +828,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,12 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,23 +853,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,10 +889,10 @@
   <colors>
     <mruColors>
       <color rgb="FFFF3300"/>
+      <color rgb="FF66FF33"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFCCFF33"/>
-      <color rgb="FF66FF33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -908,10 +1017,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -949,7 +1058,7 @@
         <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Les joueurs 
 se sont amusés</cx:v>
             </cx:txData>
@@ -1025,10 +1134,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.16</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1036,7 +1145,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Mécaniques comprise</cx:v>
+          <cx:v>Mécaniques comprises</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1056,7 +1165,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Mécaniques comprise</a:t>
+            <a:t>Mécaniques comprises</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1066,7 +1175,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Les mécaniques ont été comprises</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1122,10 +1231,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1133,7 +1242,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Commande comprises</cx:v>
+          <cx:v>Commandes comprises</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1153,7 +1262,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Commande comprises</a:t>
+            <a:t>Commandes comprises</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1163,7 +1272,7 @@
         <cx:series layoutId="sunburst" uniqueId="{731BF389-3BE5-4199-856B-CE0B7F94DE3E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Les commandes du jeu ont été comprise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1316,10 +1425,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.26</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.25</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1357,8 +1466,8 @@
         <cx:series layoutId="sunburst" uniqueId="{6109AE0F-7723-4D2F-BBBA-41B421E302CE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
-              <cx:v>Les joueurs on atteints les objectifs du jeu</cx:v>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Les joueurs ont atteints les objectifs du jeu</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataPt idx="0">
@@ -1413,10 +1522,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1424,7 +1533,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>On lu tout le texte</cx:v>
+          <cx:v>Ont lu tout le texte</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1444,7 +1553,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>On lu tout le texte</a:t>
+            <a:t>Ont lu tout le texte</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1454,7 +1563,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D3366049-3379-468C-90B4-5333EC99BB7A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Les joueurs ont lu tout le texte</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1483,6 +1592,82 @@
             <cx:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Ont visés le score</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Ont visés le score</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{611FC285-3C68-4D47-839F-2195C8D9EECA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:v>Les joueurs ont visés le score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
@@ -1785,6 +1970,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
   <cs:axisTitle>
@@ -5026,6 +5251,546 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5614,7 +6379,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7867651" y="395288"/>
+              <a:off x="7867651" y="1157288"/>
               <a:ext cx="3067050" cy="4567238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5692,7 +6457,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11525250" y="395287"/>
+              <a:off x="11525250" y="1157287"/>
               <a:ext cx="3048000" cy="4567238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5733,7 +6498,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5811,7 +6576,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>695324</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5882,15 +6647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5926,7 +6691,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7877175" y="12392025"/>
+              <a:off x="8162925" y="12420600"/>
               <a:ext cx="3067050" cy="4743450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5961,13 +6726,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6037,16 +6802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>952499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6082,8 +6847,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7867650" y="18116549"/>
-              <a:ext cx="3048000" cy="4200525"/>
+              <a:off x="11563350" y="19059524"/>
+              <a:ext cx="3048000" cy="5162550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>942974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Graphique 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08B9208-E56F-4D75-B204-13A4DA317F09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8077200" y="19049999"/>
+              <a:ext cx="3171825" cy="5114925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6379,11 +7222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,26 +7237,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="47">
+        <f ca="1">B3:H13</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="21">
         <v>5</v>
       </c>
@@ -6429,28 +7275,28 @@
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43">
-        <v>1</v>
-      </c>
-      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="49">
         <v>10</v>
       </c>
     </row>
@@ -6459,277 +7305,534 @@
         <v>3</v>
       </c>
       <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="36">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="44">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44">
-        <v>1</v>
-      </c>
-      <c r="H8" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="44">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C10" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44">
-        <v>1</v>
-      </c>
-      <c r="H10" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C11" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44">
-        <v>1</v>
-      </c>
-      <c r="H11" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>7</v>
+      </c>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="29">
+        <v>46</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="51"/>
+    <row r="19" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11">
+        <v>19</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>16</v>
+    <row r="20" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="11">
+        <v>39</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="11">
+        <v>16</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>22</v>
+      <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="33"/>
+    <row r="22" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11">
+        <v>21</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="33"/>
+    <row r="23" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="11">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
+    <row r="24" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="11">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11">
+        <v>23</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E26" s="14">
         <v>19</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="52" t="s">
-        <v>22</v>
-      </c>
+      <c r="G26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="60"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="58"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="58"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="55"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="55"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="55"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="55"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="55"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="55"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="57"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="55"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="55"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Grille_d_evaluation_hellink.xlsx
+++ b/Grille_d_evaluation_hellink.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F83E-215A-4CEA-8035-B33E1ECE2BB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8900EC05-75C6-4EFA-AEB4-C19B672B5A67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,33 +11,33 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$C$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$10:$G$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$C$12:$G$12</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$6</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$6:$G$6</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$B$11</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$C$11:$G$11</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$C$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$9</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Grille d'évaluation du Serious game Hellink</t>
   </si>
@@ -242,6 +242,9 @@
   <si>
     <t>Les joueurs ont visés le score</t>
   </si>
+  <si>
+    <t>Anthony Lamour</t>
+  </si>
 </sst>
 </file>
 
@@ -269,12 +272,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -324,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -706,18 +709,20 @@
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,9 +732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,40 +749,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,17 +803,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,45 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,6 +840,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,10 +914,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.10</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -952,7 +955,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D8D479D4-D5E3-4AB5-8424-DDD270067037}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Intention comprise 
 par les joueurs</cx:v>
             </cx:txData>
@@ -1009,6 +1012,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1017,10 +1027,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1058,7 +1068,7 @@
         <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Les joueurs 
 se sont amusés</cx:v>
             </cx:txData>
@@ -1126,6 +1136,13 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1134,10 +1151,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1175,7 +1192,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Les mécaniques ont été comprises</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1223,6 +1240,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1231,10 +1255,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.16</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1272,7 +1296,7 @@
         <cx:series layoutId="sunburst" uniqueId="{731BF389-3BE5-4199-856B-CE0B7F94DE3E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Les commandes du jeu ont été comprise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1320,6 +1344,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1328,10 +1359,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1369,7 +1400,7 @@
         <cx:series layoutId="sunburst" uniqueId="{0487D172-755B-4791-9D4A-6C81B788BCEA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Les joueurs en ont appris plus sur la manipulation d'informations</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1417,6 +1448,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1425,10 +1463,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1466,7 +1504,7 @@
         <cx:series layoutId="sunburst" uniqueId="{6109AE0F-7723-4D2F-BBBA-41B421E302CE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Les joueurs ont atteints les objectifs du jeu</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1514,6 +1552,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1522,10 +1567,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1563,7 +1608,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D3366049-3379-468C-90B4-5333EC99BB7A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Les joueurs ont lu tout le texte</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1611,6 +1656,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1687,6 +1739,13 @@
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -6536,7 +6595,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="7877175" y="6681787"/>
-              <a:ext cx="3048000" cy="4757738"/>
+              <a:ext cx="3048000" cy="5710238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6614,7 +6673,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="11553825" y="6696074"/>
-              <a:ext cx="3048000" cy="4733925"/>
+              <a:ext cx="3048000" cy="5686425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6691,7 +6750,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8162925" y="12420600"/>
+              <a:off x="8162925" y="13373100"/>
               <a:ext cx="3067050" cy="4743450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6769,7 +6828,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11553825" y="12411074"/>
+              <a:off x="11553825" y="13363574"/>
               <a:ext cx="3028950" cy="4752975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6804,14 +6863,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>952499</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6847,8 +6906,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11563350" y="19059524"/>
-              <a:ext cx="3048000" cy="5162550"/>
+              <a:off x="11525810" y="19061206"/>
+              <a:ext cx="3025589" cy="4997824"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7226,604 +7285,609 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="14.28515625" customWidth="1"/>
+    <col min="1" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" s="59" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47">
+      <c r="B3" s="52">
         <f ca="1">B3:H13</f>
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="21">
+      <c r="B4" s="53"/>
+      <c r="C4" s="20">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>1</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="K7" s="2"/>
+      <c r="H7" s="55"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>0</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>0</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>0</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>7</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>0</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>46</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>22</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>19</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>39</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>16</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>21</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>16</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>18</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>23</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>19</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="58"/>
+    <row r="43" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="58"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="45"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="43"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="55"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="57"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="45"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="55"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="57"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="57"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="57"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="55"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="57"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="57"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="57"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="55"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="57"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
